--- a/salida.xlsx
+++ b/salida.xlsx
@@ -508,7 +508,7 @@
         <v>-2577.1484375</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>27.34375</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>126364.8681640625</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-1261.23046875</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>-6188931.076049805</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>61921.20361328125</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>303122044.8703766</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-3032544.334411621</v>
       </c>
     </row>
   </sheetData>
